--- a/results/LIWC-22 Results - male - LIWC Analysis.xlsx
+++ b/results/LIWC-22 Results - male - LIWC Analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding Projects\second_study\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben Levy\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C483200C-688D-49B0-B437-3CCB7B62D136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319BEB14-CBD1-4192-9A65-A6C62F16F628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720"/>
+    <workbookView xWindow="1605" yWindow="1725" windowWidth="22725" windowHeight="13785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LIWC-22 Results - male - LIWC A" sheetId="1" r:id="rId1"/>
@@ -18,15 +18,26 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'LIWC-22 Results - male - LIWC A'!$T$1</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'LIWC-22 Results - male - LIWC A'!$T$2:$T$169</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'LIWC-22 Results - male - LIWC A'!$T$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'LIWC-22 Results - male - LIWC A'!$T$2:$T$169</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="197">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -602,12 +613,27 @@
   </si>
   <si>
     <t>n=</t>
+  </si>
+  <si>
+    <t>CDI:</t>
+  </si>
+  <si>
+    <t>Mann-Whitney U Test (unpaired, two-samples)</t>
+  </si>
+  <si>
+    <t>H_0: μ_f=μ_m</t>
+  </si>
+  <si>
+    <t>H_a: μ_f &lt; μ_m</t>
+  </si>
+  <si>
+    <t>p-value: 0.002764 &lt; alpha=0.05</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2145,14 +2171,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T173"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="R182" sqref="R182"/>
+    <sheetView tabSelected="1" topLeftCell="H135" workbookViewId="0">
+      <selection activeCell="Y138" sqref="Y138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="22" max="22" width="42.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -9830,7 +9859,7 @@
         <v>-8.2599999999999927</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>8978</v>
       </c>
@@ -9890,7 +9919,7 @@
         <v>11.810000000000008</v>
       </c>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>9058</v>
       </c>
@@ -9950,7 +9979,7 @@
         <v>1.6900000000000013</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>9095</v>
       </c>
@@ -10010,7 +10039,7 @@
         <v>4.5400000000000045</v>
       </c>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>9122</v>
       </c>
@@ -10070,7 +10099,7 @@
         <v>6.5499999999999989</v>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>9156</v>
       </c>
@@ -10130,7 +10159,7 @@
         <v>-0.33000000000000274</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>9160</v>
       </c>
@@ -10190,7 +10219,7 @@
         <v>-4.09</v>
       </c>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>9167</v>
       </c>
@@ -10250,7 +10279,7 @@
         <v>24.030000000000005</v>
       </c>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>9227</v>
       </c>
@@ -10310,7 +10339,7 @@
         <v>-1.4999999999999982</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>9340</v>
       </c>
@@ -10370,7 +10399,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>9473</v>
       </c>
@@ -10430,7 +10459,7 @@
         <v>-2.1900000000000026</v>
       </c>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>9505</v>
       </c>
@@ -10490,7 +10519,7 @@
         <v>2.2199999999999998</v>
       </c>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>9512</v>
       </c>
@@ -10549,8 +10578,11 @@
         <f t="shared" si="2"/>
         <v>-11.720000000000004</v>
       </c>
-    </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V140" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="141" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>9593</v>
       </c>
@@ -10609,8 +10641,11 @@
         <f t="shared" si="2"/>
         <v>7.7300000000000058</v>
       </c>
-    </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V141" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="142" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>9632</v>
       </c>
@@ -10669,8 +10704,11 @@
         <f t="shared" si="2"/>
         <v>13.229999999999995</v>
       </c>
-    </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V142" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="143" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>9636</v>
       </c>
@@ -10729,8 +10767,11 @@
         <f t="shared" si="2"/>
         <v>5.33</v>
       </c>
-    </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V143" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="144" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>9645</v>
       </c>
@@ -10788,6 +10829,9 @@
       <c r="T144">
         <f t="shared" si="2"/>
         <v>19.299999999999997</v>
+      </c>
+      <c r="V144" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="145" spans="1:20" x14ac:dyDescent="0.25">
